--- a/excels/clean/total.xlsx
+++ b/excels/clean/total.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>success</t>
   </si>
@@ -29,6 +29,13 @@
   <si>
     <t>fail</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
   </si>
 </sst>
 </file>
@@ -493,8 +500,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,54 +631,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="标题" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="16" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,9 +718,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4463012914383858E-2"/>
+          <c:x val="3.8757491424569961E-2"/>
           <c:y val="2.6095788716216782E-2"/>
-          <c:w val="0.93044472453259541"/>
+          <c:w val="0.94615026698867788"/>
           <c:h val="0.86478050745066448"/>
         </c:manualLayout>
       </c:layout>
@@ -730,7 +744,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -740,230 +757,230 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>total!$A:$A</c:f>
+              <c:f>total!$A$2:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>1921</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1921</c:v>
+                  <c:v>1922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1922</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1924</c:v>
+                  <c:v>1933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1933</c:v>
+                  <c:v>1934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1934</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1935</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1936</c:v>
+                  <c:v>1938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1938</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1947</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1950</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1951</c:v>
+                  <c:v>1952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1952</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1953</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1956</c:v>
+                  <c:v>1958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1958</c:v>
+                  <c:v>1960</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1960</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1962</c:v>
+                  <c:v>1963</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1963</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1964</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1965</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1966</c:v>
+                  <c:v>1967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1967</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1968</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1969</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1970</c:v>
+                  <c:v>1971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1971</c:v>
+                  <c:v>1972</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1972</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1973</c:v>
+                  <c:v>1974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1974</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1975</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1976</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1977</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1978</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1979</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1980</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1981</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1982</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1983</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1984</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1985</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1986</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1987</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1988</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1989</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1990</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1991</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1992</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1993</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1994</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1995</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="74">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
@@ -1230,6 +1247,237 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>total!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>total!$D$2:$D$75</c:f>
@@ -1475,12 +1723,302 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="45"/>
         <c:overlap val="100"/>
         <c:axId val="996606463"/>
         <c:axId val="996606879"/>
       </c:barChart>
-      <c:catAx>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fail rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$E$2:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69696969696969702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47540983606557374</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36486486486486486</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26732673267326734</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.23958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19672131147540983</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33734939759036142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.34343434343434343</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.25806451612903225</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30208333333333331</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0459770114942528E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12222222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E91B-4F71-8B75-402BA3F3CDB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="923601647"/>
+        <c:axId val="931987807"/>
+      </c:lineChart>
+      <c:dateAx>
         <c:axId val="996606463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1526,11 +2064,12 @@
         </c:txPr>
         <c:crossAx val="996606879"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="996606879"/>
         <c:scaling>
@@ -1589,9 +2128,757 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="931987807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923601647"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="923601647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="931987807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9168857924847707E-2"/>
+          <c:y val="3.973256207400605E-2"/>
+          <c:w val="0.94106643415845137"/>
+          <c:h val="0.86589213439665469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>total!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>total!$E$2:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69696969696969702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47540983606557374</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36486486486486486</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26732673267326734</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.23958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19672131147540983</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33734939759036142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.34343434343434343</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.25806451612903225</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30208333333333331</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0459770114942528E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12222222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85A0-4844-A88F-49413FE9757E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="922142847"/>
+        <c:axId val="922142015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="922142847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2019"/>
+          <c:min val="1921"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922142015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="922142015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922142847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1639,6 +2926,46 @@
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2174,20 +3501,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>354805</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>440529</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>121443</xdr:rowOff>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,6 +4044,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2472,15 +4345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F61" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2490,8 +4363,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1921</v>
       </c>
@@ -2505,8 +4384,15 @@
         <f>C2-B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1">
+        <f>D2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1922</v>
       </c>
@@ -2520,8 +4406,15 @@
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="1">D3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1924</v>
       </c>
@@ -2535,8 +4428,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1933</v>
       </c>
@@ -2550,8 +4450,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1934</v>
       </c>
@@ -2565,8 +4472,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1935</v>
       </c>
@@ -2580,8 +4494,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1936</v>
       </c>
@@ -2595,8 +4516,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1938</v>
       </c>
@@ -2610,8 +4538,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1947</v>
       </c>
@@ -2625,8 +4560,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1950</v>
       </c>
@@ -2640,8 +4582,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1951</v>
       </c>
@@ -2655,8 +4604,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -2670,8 +4626,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -2685,8 +4648,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1956</v>
       </c>
@@ -2700,8 +4670,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1958</v>
       </c>
@@ -2715,8 +4692,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1960</v>
       </c>
@@ -2730,8 +4714,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -2745,8 +4736,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1963</v>
       </c>
@@ -2760,8 +4758,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1964</v>
       </c>
@@ -2775,8 +4780,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1965</v>
       </c>
@@ -2790,8 +4802,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1966</v>
       </c>
@@ -2805,8 +4824,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -2820,8 +4846,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1968</v>
       </c>
@@ -2835,8 +4868,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1969</v>
       </c>
@@ -2850,8 +4890,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1970</v>
       </c>
@@ -2865,8 +4912,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1971</v>
       </c>
@@ -2880,8 +4934,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1972</v>
       </c>
@@ -2895,8 +4956,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1973</v>
       </c>
@@ -2910,8 +4978,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1974</v>
       </c>
@@ -2925,8 +5000,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1975</v>
       </c>
@@ -2940,8 +5022,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1976</v>
       </c>
@@ -2955,8 +5044,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1977</v>
       </c>
@@ -2970,8 +5066,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -2985,8 +5088,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1979</v>
       </c>
@@ -3000,8 +5110,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1980</v>
       </c>
@@ -3015,8 +5132,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1981</v>
       </c>
@@ -3030,8 +5154,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1982</v>
       </c>
@@ -3045,8 +5176,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1983</v>
       </c>
@@ -3060,8 +5198,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1984</v>
       </c>
@@ -3075,8 +5220,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1985</v>
       </c>
@@ -3090,8 +5242,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -3105,8 +5264,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -3120,8 +5286,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -3135,8 +5308,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -3150,8 +5330,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -3165,8 +5352,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -3180,8 +5374,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1992</v>
       </c>
@@ -3195,8 +5396,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -3210,8 +5418,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1994</v>
       </c>
@@ -3225,8 +5440,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1995</v>
       </c>
@@ -3240,8 +5462,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1996</v>
       </c>
@@ -3255,8 +5484,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1997</v>
       </c>
@@ -3270,8 +5506,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1998</v>
       </c>
@@ -3285,8 +5528,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1999</v>
       </c>
@@ -3300,8 +5550,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -3315,8 +5572,15 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47540983606557374</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2001</v>
       </c>
@@ -3330,8 +5594,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -3345,8 +5616,15 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -3360,8 +5638,15 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -3375,8 +5660,15 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -3390,8 +5682,15 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46464646464646464</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -3405,8 +5704,15 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26732673267326734</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2007</v>
       </c>
@@ -3420,8 +5726,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -3435,8 +5748,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19672131147540983</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2009</v>
       </c>
@@ -3450,8 +5770,15 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -3465,8 +5792,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -3477,11 +5811,18 @@
         <v>99</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D75" si="1">C67-B67</f>
+        <f t="shared" ref="D67:D75" si="2">C67-B67</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E75" si="3">D67/C67</f>
+        <v>0.34343434343434343</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -3492,11 +5833,18 @@
         <v>93</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E68" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -3507,11 +5855,18 @@
         <v>90</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E69" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -3522,11 +5877,18 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E70" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="F70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -3537,11 +5899,18 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E71" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -3552,11 +5921,18 @@
         <v>80</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E72" s="1">
+        <f t="shared" si="3"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -3567,11 +5943,18 @@
         <v>96</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -3582,11 +5965,18 @@
         <v>87</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E74" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0459770114942528E-2</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -3597,7 +5987,14 @@
         <v>90</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="F75">
         <v>11</v>
       </c>
     </row>

--- a/excels/clean/total.xlsx
+++ b/excels/clean/total.xlsx
@@ -718,10 +718,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.8757491424569961E-2"/>
-          <c:y val="2.6095788716216782E-2"/>
-          <c:w val="0.94615026698867788"/>
-          <c:h val="0.86478050745066448"/>
+          <c:x val="4.1265118752379919E-2"/>
+          <c:y val="2.3287293171994475E-2"/>
+          <c:w val="0.91690038588791078"/>
+          <c:h val="0.86758894416932009"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -744,7 +744,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent6">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
@@ -1239,7 +1239,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1746,23 +1749,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2132,6 +2146,8 @@
         <c:axId val="931987807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2169,8 +2185,9 @@
         <c:crossAx val="923601647"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="923601647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2182,11 +2199,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="931987807"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2195,695 +2211,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.9168857924847707E-2"/>
-          <c:y val="3.973256207400605E-2"/>
-          <c:w val="0.94106643415845137"/>
-          <c:h val="0.86589213439665469"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="6350" cmpd="sng">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>total!$A$2:$A$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>1921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1933</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1938</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1952</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1953</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1958</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>total!$E$2:$E$75</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.61538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.7857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.94117647058823528</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.68181818181818177</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.69696969696969702</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54545454545454541</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.32258064516129031</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.41463414634146339</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.47540983606557374</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.3888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.36486486486486486</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.21212121212121213</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.46464646464646464</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.26732673267326734</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.23958333333333334</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.19672131147540983</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.33734939759036142</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.17647058823529413</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.34343434343434343</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.25806451612903225</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.83823529411764708</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.7499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.30208333333333331</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.0459770114942528E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.12222222222222222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85A0-4844-A88F-49413FE9757E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="922142847"/>
-        <c:axId val="922142015"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="922142847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2019"/>
-          <c:min val="1921"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="922142015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="922142015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="922142847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2926,46 +2285,6 @@
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3501,522 +2820,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4028,7 +2831,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -4044,36 +2847,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4347,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
